--- a/DB/временно/Л-2313.xlsx
+++ b/DB/временно/Л-2313.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07988678-7FB4-4F0C-B0AF-1446BE7DF1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -12,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$E$39</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -134,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -493,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -501,7 +502,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -529,7 +529,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -617,9 +617,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -657,9 +657,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -694,7 +694,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -729,7 +729,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -902,8 +902,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
@@ -917,21 +918,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="16">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="15">
         <f>C39</f>
         <v>1749.263999999999</v>
       </c>
@@ -940,12 +941,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="16">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="15">
         <f>B39</f>
         <v>1430.616</v>
       </c>
@@ -954,12 +955,12 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="17">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="16">
         <f>D2-D3</f>
         <v>318.647999999999</v>
       </c>
@@ -968,393 +969,393 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13">
+    <row r="8" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
         <v>45139</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>113.256</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>256.08</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>444</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13">
+    <row r="9" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
         <v>45140</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>255.28800000000001</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>194.04</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>323</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>594</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13">
+    <row r="10" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
         <v>45141</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>259.512</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>173.44800000000001</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>284</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>640</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13">
+    <row r="11" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
         <v>45142</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>326.30399999999997</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>136.75200000000001</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>222</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>843</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13">
+    <row r="12" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
         <v>45143</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>309.67200000000003</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>161.56800000000001</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>271</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>673</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13">
+    <row r="13" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
         <v>45144</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>166.58399999999983</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>222.55199999999905</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>370</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>473</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13">
+    <row r="14" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12">
         <v>45145</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>0</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>305.71199999999999</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>502</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13">
+    <row r="15" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
         <v>45146</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>0</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>299.11200000000002</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>495</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13">
+    <row r="16" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12">
         <v>45147</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13">
+      <c r="B16" s="9"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12">
         <v>45148</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="13">
+      <c r="B17" s="9"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
         <v>45149</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13">
+      <c r="B18" s="9"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12">
         <v>45150</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="13">
+      <c r="B19" s="9"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="12">
         <v>45151</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="13">
+      <c r="B20" s="9"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12">
         <v>45152</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="13">
+      <c r="B21" s="9"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12">
         <v>45153</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="13">
+      <c r="B22" s="9"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12">
         <v>45154</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:5" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="13">
+      <c r="B23" s="9"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12">
         <v>45155</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:5" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="13">
+      <c r="B24" s="9"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12">
         <v>45156</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
-    </row>
-    <row r="26" spans="1:5" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="13">
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="12">
         <v>45157</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
-    </row>
-    <row r="27" spans="1:5" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="13">
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="12">
         <v>45158</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
-    </row>
-    <row r="28" spans="1:5" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="13">
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="12">
         <v>45159</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
-    </row>
-    <row r="29" spans="1:5" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="13">
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="12">
         <v>45160</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-    </row>
-    <row r="30" spans="1:5" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="13">
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+    </row>
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="12">
         <v>45161</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="18"/>
-    </row>
-    <row r="31" spans="1:5" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="13">
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="12">
         <v>45162</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
-    </row>
-    <row r="32" spans="1:5" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="13">
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="12">
         <v>45163</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
-    </row>
-    <row r="33" spans="1:5" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="13">
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="19"/>
+    </row>
+    <row r="33" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="12">
         <v>45164</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
-    </row>
-    <row r="34" spans="1:5" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="13">
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="19"/>
+    </row>
+    <row r="34" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="12">
         <v>45165</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
-    </row>
-    <row r="35" spans="1:5" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="13">
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="12">
         <v>45166</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20"/>
-    </row>
-    <row r="36" spans="1:5" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="13">
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="19"/>
+    </row>
+    <row r="36" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="12">
         <v>45167</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
-    </row>
-    <row r="37" spans="1:5" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="13">
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="19"/>
+    </row>
+    <row r="37" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="12">
         <v>45168</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
-    </row>
-    <row r="38" spans="1:5" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="13">
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="19"/>
+    </row>
+    <row r="38" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="12">
         <v>45169</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="20"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="19"/>
     </row>
     <row r="39" spans="1:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B39" s="2">
@@ -1375,32 +1376,11 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
